--- a/Model/KalmanTesting/MassSpringDamper/ComparingP_inf2SVD.xlsx
+++ b/Model/KalmanTesting/MassSpringDamper/ComparingP_inf2SVD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TylerFiles\GitHubRepos\BatteryModel\Model\KalmanTesting\MassSpringDamper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C20420A-737C-4131-9AF4-AA37A6559B69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F270FC1B-329B-4878-8206-4B1423084038}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" activeTab="3" xr2:uid="{C1D73AE6-76F7-4E90-9F7B-E3E1ED283BB1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" activeTab="1" xr2:uid="{C1D73AE6-76F7-4E90-9F7B-E3E1ED283BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Q&lt;&lt;R" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="17">
   <si>
     <t>Sing_val</t>
   </si>
@@ -3434,10 +3434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19963C2C-ABE9-4A66-9ED2-AC3B12AB617E}">
-  <dimension ref="A2:AE25"/>
+  <dimension ref="A2:AE43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3548,7 +3548,7 @@
       <c r="N6" s="2">
         <v>1.00078729718566</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="10">
         <v>6.2547840891910206E-2</v>
       </c>
       <c r="P6" s="4">
@@ -3730,7 +3730,7 @@
       <c r="N10" s="1">
         <v>1.1843058061465E-7</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="11">
         <v>5.7593464095731103E-6</v>
       </c>
       <c r="P10" s="1">
@@ -4021,7 +4021,7 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="10">
         <v>4.9248351274535002E-2</v>
       </c>
       <c r="U17">
@@ -4095,7 +4095,7 @@
       <c r="O20" s="6">
         <v>-0.82584353742374905</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="8">
         <v>0.54851539196384902</v>
       </c>
       <c r="S20" t="s">
@@ -4202,10 +4202,10 @@
       <c r="N22">
         <v>-8.5165254032159493E-2</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="8">
         <v>0.54186325131825896</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="10">
         <v>0.83613993424761701</v>
       </c>
       <c r="U22">
@@ -4294,14 +4294,973 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="2">
+        <v>26.443198434516699</v>
+      </c>
+      <c r="F26" s="8">
+        <v>63.959951159196898</v>
+      </c>
+      <c r="G26" s="8">
+        <v>85.958553838962104</v>
+      </c>
+      <c r="H26" s="8">
+        <v>88.580345578148496</v>
+      </c>
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26">
+        <v>89.827850292560697</v>
+      </c>
+      <c r="N26">
+        <v>82.485137585963997</v>
+      </c>
+      <c r="O26" s="6">
+        <v>34.325893518245401</v>
+      </c>
+      <c r="P26">
+        <v>56.734777842893898</v>
+      </c>
+      <c r="S26" t="s">
+        <v>13</v>
+      </c>
+      <c r="U26">
+        <v>68.046612282218305</v>
+      </c>
+      <c r="V26" s="4">
+        <v>55.231801173667101</v>
+      </c>
+      <c r="W26">
+        <v>55.929190597701201</v>
+      </c>
+      <c r="X26">
+        <v>61.945160669522402</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB26">
+        <v>87.970763292895896</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>49.0327608413346</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>46.540656924347402</v>
+      </c>
+      <c r="AE26">
+        <v>71.972337861264293</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>75.171021276774695</v>
+      </c>
+      <c r="F27">
+        <v>67.953664701276594</v>
+      </c>
+      <c r="G27" s="6">
+        <v>42.433321083057699</v>
+      </c>
+      <c r="H27">
+        <v>60.0749501214883</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.185153746420013</v>
+      </c>
+      <c r="N27">
+        <v>89.940911734232003</v>
+      </c>
+      <c r="O27">
+        <v>89.830136794325497</v>
+      </c>
+      <c r="P27">
+        <v>89.955989264532406</v>
+      </c>
+      <c r="U27">
+        <v>80.675945938102302</v>
+      </c>
+      <c r="V27">
+        <v>71.4656211736676</v>
+      </c>
+      <c r="W27">
+        <v>72.027194965626293</v>
+      </c>
+      <c r="X27" s="10">
+        <v>28.145069770170601</v>
+      </c>
+      <c r="AB27">
+        <v>89.834208866761202</v>
+      </c>
+      <c r="AC27">
+        <v>70.184886062679595</v>
+      </c>
+      <c r="AD27">
+        <v>84.391349131108498</v>
+      </c>
+      <c r="AE27" s="10">
+        <v>20.659008390334701</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>89.617208813936102</v>
+      </c>
+      <c r="F28">
+        <v>88.203281756059795</v>
+      </c>
+      <c r="G28">
+        <v>55.317809514073701</v>
+      </c>
+      <c r="H28" s="10">
+        <v>34.745082909899899</v>
+      </c>
+      <c r="M28">
+        <v>89.939724043649406</v>
+      </c>
+      <c r="N28">
+        <v>85.114472313612197</v>
+      </c>
+      <c r="O28">
+        <v>57.189431265731699</v>
+      </c>
+      <c r="P28" s="10">
+        <v>33.265276820868699</v>
+      </c>
+      <c r="U28">
+        <v>82.036288363977505</v>
+      </c>
+      <c r="V28">
+        <v>49.627755181976397</v>
+      </c>
+      <c r="W28" s="6">
+        <v>41.483896314632197</v>
+      </c>
+      <c r="X28">
+        <v>89.817439413580601</v>
+      </c>
+      <c r="AB28">
+        <v>89.447648402425102</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>47.585966372847601</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>44.064362755348299</v>
+      </c>
+      <c r="AE28">
+        <v>80.254614114670105</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>68.632144097800804</v>
+      </c>
+      <c r="F29" s="4">
+        <v>35.341072575376202</v>
+      </c>
+      <c r="G29">
+        <v>69.164939789568606</v>
+      </c>
+      <c r="H29">
+        <v>74.069529433838994</v>
+      </c>
+      <c r="M29">
+        <v>89.968169693457398</v>
+      </c>
+      <c r="N29" s="4">
+        <v>8.9789747392985202</v>
+      </c>
+      <c r="O29">
+        <v>81.021135597159599</v>
+      </c>
+      <c r="P29">
+        <v>89.969406621350402</v>
+      </c>
+      <c r="U29" s="2">
+        <v>25.490449110604199</v>
+      </c>
+      <c r="V29">
+        <v>66.879935754929093</v>
+      </c>
+      <c r="W29">
+        <v>80.071130797296107</v>
+      </c>
+      <c r="X29">
+        <v>87.934920181455098</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>2.1096588813778401</v>
+      </c>
+      <c r="AC29">
+        <v>88.985459632307297</v>
+      </c>
+      <c r="AD29">
+        <v>88.189880135250405</v>
+      </c>
+      <c r="AE29">
+        <v>89.620496147983502</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="4"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="2"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="2"/>
+    </row>
+    <row r="33" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9">
+        <v>5.3270482341239003E-8</v>
+      </c>
+      <c r="F34" s="9">
+        <v>3.5654690289054798E-7</v>
+      </c>
+      <c r="G34" s="9">
+        <v>3.2431521220799801E-6</v>
+      </c>
+      <c r="H34" s="9">
+        <v>5.7593451989108398E-6</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="8"/>
+      <c r="M34" s="9">
+        <v>5.3270488555479399E-8</v>
+      </c>
+      <c r="N34" s="9">
+        <v>3.5654692009301099E-7</v>
+      </c>
+      <c r="O34" s="9">
+        <v>3.2431531925434599E-6</v>
+      </c>
+      <c r="P34" s="9">
+        <v>5.7593464095731103E-6</v>
+      </c>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T34" s="8"/>
+      <c r="U34" s="9">
+        <v>5.3270476004087602E-8</v>
+      </c>
+      <c r="V34" s="9">
+        <v>3.5654677365399302E-7</v>
+      </c>
+      <c r="W34" s="9">
+        <v>3.2431520385630698E-6</v>
+      </c>
+      <c r="X34" s="9">
+        <v>5.75934526588357E-6</v>
+      </c>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="9">
+        <v>5.3270487940108203E-8</v>
+      </c>
+      <c r="AC34" s="9">
+        <v>3.5654690843669499E-7</v>
+      </c>
+      <c r="AD34" s="9">
+        <v>3.2431531841702699E-6</v>
+      </c>
+      <c r="AE34" s="9">
+        <v>5.7593462757774504E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8">
+        <v>0.48376617534000299</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.74421248349804003</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1.3732468494196199</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0.187972241110302</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8">
+        <v>1.00078729718566</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0.187972241110302</v>
+      </c>
+      <c r="O35" s="8">
+        <v>7.6773217304255903E-2</v>
+      </c>
+      <c r="P35" s="8">
+        <v>6.2547840891910206E-2</v>
+      </c>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8">
+        <v>0.74421248349803903</v>
+      </c>
+      <c r="V35" s="8">
+        <v>2.7659257538254902</v>
+      </c>
+      <c r="W35" s="8">
+        <v>1.5103690162169801</v>
+      </c>
+      <c r="X35" s="8">
+        <v>1.2805422402755899</v>
+      </c>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8">
+        <v>0.187972241110302</v>
+      </c>
+      <c r="AC35" s="8">
+        <v>1.2805422402755899</v>
+      </c>
+      <c r="AD35" s="8">
+        <v>0.36791427087761303</v>
+      </c>
+      <c r="AE35" s="8">
+        <v>0.37587918902976702</v>
+      </c>
+    </row>
+    <row r="36" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8">
+        <v>0.22238524671840401</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.60680909313342302</v>
+      </c>
+      <c r="G36" s="8">
+        <v>1.50446682778767</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0.16712120297987901</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8">
+        <v>1.0007924736596601</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0.189866424681083</v>
+      </c>
+      <c r="O36" s="8">
+        <v>8.1577584380923496E-2</v>
+      </c>
+      <c r="P36" s="8">
+        <v>4.9248351274535002E-2</v>
+      </c>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8">
+        <v>8.0284911505630295E-3</v>
+      </c>
+      <c r="V36" s="8">
+        <v>2.98500485607032</v>
+      </c>
+      <c r="W36" s="8">
+        <v>1.5390457162028801</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0.91990234620404299</v>
+      </c>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8">
+        <v>1.59772555628587E-2</v>
+      </c>
+      <c r="AC36" s="8">
+        <v>1.2813716296259501</v>
+      </c>
+      <c r="AD36" s="8">
+        <v>0.55230545170485801</v>
+      </c>
+      <c r="AE36" s="8">
+        <v>6.7514666041192606E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8">
+        <v>0.73806306671338795</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.81572314221419895</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0.89537627081010596</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0.82169585170333104</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8">
+        <v>0.99999477857108798</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0.98774567928821599</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0.82584353742374905</v>
+      </c>
+      <c r="P37" s="8">
+        <v>0.83613993424761701</v>
+      </c>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8">
+        <v>0.88175608771481795</v>
+      </c>
+      <c r="V37" s="8">
+        <v>0.90265703562702204</v>
+      </c>
+      <c r="W37" s="8">
+        <v>0.57025771309523898</v>
+      </c>
+      <c r="X37" s="8">
+        <v>0.74914192873985097</v>
+      </c>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8">
+        <v>0.93569668093493596</v>
+      </c>
+      <c r="AC37" s="8">
+        <v>0.99932220220863399</v>
+      </c>
+      <c r="AD37" s="8">
+        <v>0.68783967881601804</v>
+      </c>
+      <c r="AE37" s="8">
+        <v>0.71855900771561598</v>
+      </c>
+    </row>
+    <row r="38" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8">
+        <v>42.433321083057699</v>
+      </c>
+      <c r="F38" s="8">
+        <v>35.341072575376202</v>
+      </c>
+      <c r="G38" s="8">
+        <v>26.443198434516699</v>
+      </c>
+      <c r="H38" s="8">
+        <v>34.745082909899899</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8">
+        <v>0.185153746420013</v>
+      </c>
+      <c r="N38" s="8">
+        <v>8.9789747392985202</v>
+      </c>
+      <c r="O38" s="8">
+        <v>34.325893518245401</v>
+      </c>
+      <c r="P38" s="8">
+        <v>33.265276820868699</v>
+      </c>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8">
+        <v>28.145069770170601</v>
+      </c>
+      <c r="V38" s="8">
+        <v>25.490449110604199</v>
+      </c>
+      <c r="W38" s="8">
+        <v>55.231801173667101</v>
+      </c>
+      <c r="X38" s="8">
+        <v>41.483896314632197</v>
+      </c>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8">
+        <v>20.659008390334701</v>
+      </c>
+      <c r="AC38" s="8">
+        <v>2.1096588813778401</v>
+      </c>
+      <c r="AD38" s="8">
+        <v>44.064362755348299</v>
+      </c>
+      <c r="AE38" s="8">
+        <v>46.540656924347402</v>
+      </c>
+    </row>
+    <row r="40" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+    </row>
+    <row r="41" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+    </row>
+    <row r="42" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+    </row>
+    <row r="43" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E34:H34">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:P34">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U34:X34">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB34:AE34">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:H35">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:H36">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:H37">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:H38">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:P35">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M36:P36">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M37:P37">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38:P38">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U35:X35">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U36:X36">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U37:X37">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U38:X38">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB35:AE35">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB36:AE36">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB37:AE37">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB38:AE38">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4310,13 +5269,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A14C9-1299-496D-8B58-AEAC1D46C8FE}">
   <dimension ref="B1:AB60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.25">
@@ -4952,7 +5912,7 @@
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17" s="16">
         <v>2.4844957722846498E-5</v>
       </c>
       <c r="X17" s="8"/>
@@ -6905,8 +7865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DAA829-EC81-4F78-8FC7-F3D0C1E99CE6}">
   <dimension ref="B2:AB51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26:T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9422,8 +10382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F1D14F-0F17-4323-B1F0-857714EDACBB}">
   <dimension ref="B2:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26:AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
